--- a/PLR_do/output2016.xlsx
+++ b/PLR_do/output2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297FFE9-C664-4724-8BAE-0FCF339920BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CAB94-4D0E-4408-A5E1-A046AB61942E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E24576E9-B3C2-4319-9738-AFBBE47B15B9}"/>
+    <workbookView xWindow="7640" yWindow="3450" windowWidth="10160" windowHeight="8240" xr2:uid="{E24576E9-B3C2-4319-9738-AFBBE47B15B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>city</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,6 +714,14 @@
   </si>
   <si>
     <t>Haikou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bozhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maanshan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACCDE13-6F98-499A-B7B5-EB86DF67A534}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1114,22 +1122,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="C2">
-        <v>0.55700000000000005</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D2">
-        <v>0.746</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E2">
-        <v>0.52500000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="F2">
-        <v>0.55800000000000005</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G2">
-        <v>0.58699999999999997</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,22 +1145,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.998</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C3">
-        <v>0.44500000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D3">
         <v>0.66600000000000004</v>
       </c>
       <c r="E3">
-        <v>0.40699999999999997</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="F3">
-        <v>0.44600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="G3">
-        <v>0.47799999999999998</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1160,22 +1168,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.93</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C4">
-        <v>0.23899999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D4">
-        <v>0.47099999999999997</v>
+        <v>0.434</v>
       </c>
       <c r="E4">
-        <v>0.34699999999999998</v>
+        <v>0.246</v>
       </c>
       <c r="F4">
-        <v>0.161</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="G4">
-        <v>0.156</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,22 +1191,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.91100000000000003</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C5">
-        <v>0.20499999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="D5">
-        <v>0.432</v>
+        <v>0.38</v>
       </c>
       <c r="E5">
-        <v>0.30399999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="F5">
-        <v>0.14799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="G5">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1206,22 +1214,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76500000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C6">
-        <v>0.161</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D6">
-        <v>0.35099999999999998</v>
+        <v>0.317</v>
       </c>
       <c r="E6">
-        <v>0.26500000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="F6">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>5.6000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1229,22 +1237,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.91700000000000004</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="C7">
-        <v>0.20399999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="D7">
-        <v>0.432</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E7">
-        <v>0.29899999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G7">
-        <v>0.113</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,22 +1260,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.89800000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="C8">
-        <v>0.126</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D8">
-        <v>0.33600000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E8">
-        <v>0.189</v>
+        <v>0.108</v>
       </c>
       <c r="F8">
-        <v>8.8999999999999996E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G8">
-        <v>6.4000000000000001E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1275,22 +1283,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.79200000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C9">
-        <v>0.11899999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D9">
-        <v>0.307</v>
+        <v>0.252</v>
       </c>
       <c r="E9">
-        <v>0.193</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G9">
-        <v>3.9E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,22 +1306,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.86799999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C10">
-        <v>0.21199999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="D10">
-        <v>0.42899999999999999</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E10">
-        <v>0.32800000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="F10">
-        <v>0.13700000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G10">
-        <v>9.4E-2</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1321,22 +1329,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.86099999999999999</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="C11">
-        <v>0.23599999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D11">
-        <v>0.45100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E11">
-        <v>0.34699999999999998</v>
+        <v>0.191</v>
       </c>
       <c r="F11">
-        <v>8.6999999999999994E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G11">
-        <v>0.19700000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1344,22 +1352,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.81699999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C12">
-        <v>0.14099999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D12">
-        <v>0.34</v>
+        <v>0.252</v>
       </c>
       <c r="E12">
-        <v>0.223</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F12">
-        <v>8.8999999999999996E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G12">
-        <v>4.7E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1367,22 +1375,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.82599999999999996</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="C13">
-        <v>0.20300000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="D13">
-        <v>0.41</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E13">
-        <v>0.316</v>
+        <v>0.185</v>
       </c>
       <c r="F13">
-        <v>0.14000000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="G13">
-        <v>6.8000000000000005E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,22 +1398,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.72599999999999998</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.114</v>
       </c>
       <c r="D14">
-        <v>0.38100000000000001</v>
+        <v>0.313</v>
       </c>
       <c r="E14">
-        <v>0.32400000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="F14">
-        <v>0.11799999999999999</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G14">
-        <v>4.2000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,22 +1421,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.76800000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="C15">
-        <v>0.17399999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0.36599999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E15">
-        <v>0.28699999999999998</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F15">
-        <v>6.5000000000000002E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G15">
-        <v>6.6000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1436,22 +1444,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.98699999999999999</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="C16">
-        <v>0.40899999999999997</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D16">
-        <v>0.63500000000000001</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E16">
-        <v>0.439</v>
+        <v>0.376</v>
       </c>
       <c r="F16">
-        <v>0.316</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="G16">
-        <v>0.45600000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1459,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.753</v>
+        <v>0.88</v>
       </c>
       <c r="C17">
-        <v>0.17100000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D17">
-        <v>0.35899999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="E17">
-        <v>0.28199999999999997</v>
+        <v>0.151</v>
       </c>
       <c r="F17">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G17">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1482,22 +1490,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.82599999999999996</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="C18">
-        <v>0.21199999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D18">
-        <v>0.41799999999999998</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E18">
-        <v>0.34100000000000003</v>
+        <v>0.224</v>
       </c>
       <c r="F18">
-        <v>9.6000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G18">
-        <v>9.7000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1505,19 +1513,19 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.67700000000000005</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="C19">
-        <v>0.16</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D19">
-        <v>0.32900000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E19">
-        <v>0.26900000000000002</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F19">
-        <v>4.9000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G19">
         <v>0.04</v>
@@ -1528,19 +1536,19 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.55800000000000005</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C20">
-        <v>0.14799999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D20">
-        <v>0.28799999999999998</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E20">
-        <v>0.253</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F20">
-        <v>3.7999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G20">
         <v>0.02</v>
@@ -1551,22 +1559,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.83699999999999997</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C21">
-        <v>0.17</v>
+        <v>0.108</v>
       </c>
       <c r="D21">
-        <v>0.378</v>
+        <v>0.311</v>
       </c>
       <c r="E21">
-        <v>0.27200000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F21">
-        <v>7.9000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G21">
-        <v>8.3000000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,22 +1582,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.626</v>
+        <v>0.754</v>
       </c>
       <c r="C22">
-        <v>0.156</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D22">
-        <v>0.312</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E22">
-        <v>0.26400000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F22">
         <v>4.7E-2</v>
       </c>
       <c r="G22">
-        <v>2.9000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1597,22 +1605,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.63300000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="C23">
-        <v>0.16600000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D23">
-        <v>0.32400000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="E23">
-        <v>0.28199999999999997</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="F23">
-        <v>4.2000000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G23">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1620,22 +1628,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.71499999999999997</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="C24">
-        <v>0.16800000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D24">
-        <v>0.34699999999999998</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E24">
-        <v>0.28199999999999997</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F24">
-        <v>5.8000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G24">
-        <v>4.9000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,22 +1651,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.60699999999999998</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C25">
-        <v>0.10299999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D25">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="E25">
-        <v>0.17599999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F25">
-        <v>2.7E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G25">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,22 +1674,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.56999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="C26">
-        <v>0.122</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D26">
-        <v>0.26400000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E26">
-        <v>0.20799999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F26">
-        <v>2.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G26">
-        <v>2.1000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1689,22 +1697,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.85799999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C27">
-        <v>0.14899999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D27">
-        <v>0.35699999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="E27">
-        <v>0.23400000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F27">
-        <v>8.5000000000000006E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G27">
-        <v>6.8000000000000005E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1712,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.77200000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="C28">
-        <v>0.16800000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="D28">
-        <v>0.36</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E28">
-        <v>0.27200000000000002</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="F28">
-        <v>4.8000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G28">
-        <v>9.0999999999999998E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,22 +1743,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.78600000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="C29">
-        <v>0.14699999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D29">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E29">
-        <v>0.23400000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="F29">
-        <v>4.2000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G29">
-        <v>8.7999999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,22 +1766,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.69499999999999995</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C30">
-        <v>0.161</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D30">
-        <v>0.33500000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E30">
-        <v>0.27100000000000002</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F30">
-        <v>4.2000000000000003E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G30">
-        <v>5.3999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1781,22 +1789,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.85399999999999998</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C31">
-        <v>0.16500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D31">
-        <v>0.375</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="E31">
-        <v>0.25800000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F31">
-        <v>7.0999999999999994E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G31">
-        <v>9.8000000000000004E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1804,22 +1812,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.875</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C32">
-        <v>0.16400000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D32">
-        <v>0.379</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E32">
-        <v>0.255</v>
+        <v>0.13</v>
       </c>
       <c r="F32">
-        <v>8.8999999999999996E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G32">
-        <v>8.8999999999999996E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1827,19 +1835,19 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="C33">
-        <v>0.157</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D33">
-        <v>0.307</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E33">
-        <v>0.26700000000000002</v>
+        <v>0.113</v>
       </c>
       <c r="F33">
-        <v>0.04</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G33">
         <v>2.9000000000000001E-2</v>
@@ -1850,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.81399999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="C34">
-        <v>0.23899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D34">
-        <v>0.441</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="E34">
-        <v>0.38100000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>0.13700000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G34">
-        <v>8.3000000000000004E-2</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,65 +1881,65 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.81699999999999995</v>
+        <v>0.879</v>
       </c>
       <c r="C35">
-        <v>0.16200000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D35">
-        <v>0.36399999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E35">
-        <v>0.26100000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F35">
-        <v>7.8E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G35">
-        <v>6.6000000000000003E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B36">
-        <v>0.78500000000000003</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C36">
-        <v>0.216</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D36">
-        <v>0.41199999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E36">
-        <v>0.35</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F36">
-        <v>0.113</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G36">
-        <v>6.8000000000000005E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.82399999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="C37">
-        <v>0.19600000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D37">
-        <v>0.40200000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E37">
-        <v>0.313</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F37">
-        <v>0.11</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G37">
         <v>7.3999999999999996E-2</v>
@@ -1939,482 +1947,482 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.53700000000000003</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="C38">
-        <v>0.14799999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="D38">
-        <v>0.28199999999999997</v>
+        <v>0.317</v>
       </c>
       <c r="E38">
-        <v>0.254</v>
+        <v>0.153</v>
       </c>
       <c r="F38">
-        <v>2.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G38">
-        <v>2.7E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.64300000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="C39">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="D39">
-        <v>0.26100000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="E39">
-        <v>0.17899999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F39">
-        <v>2.7E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G39">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.66</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="C40">
-        <v>0.123</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D40">
-        <v>0.28499999999999998</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="E40">
-        <v>0.20799999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F40">
         <v>3.1E-2</v>
       </c>
       <c r="G40">
-        <v>3.4000000000000002E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.53700000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="C41">
-        <v>0.156</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D41">
-        <v>0.28999999999999998</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E41">
-        <v>0.26800000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="F41">
-        <v>2.4E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G41">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.46899999999999997</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="C42">
-        <v>0.15</v>
+        <v>0.104</v>
       </c>
       <c r="D42">
-        <v>0.26500000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E42">
-        <v>0.25800000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F42">
-        <v>2.3E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G42">
-        <v>1.7000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.46200000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C43">
-        <v>0.111</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D43">
-        <v>0.22600000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E43">
-        <v>0.19</v>
+        <v>0.154</v>
       </c>
       <c r="F43">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G43">
         <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G43">
-        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.28299999999999997</v>
+        <v>0.77</v>
       </c>
       <c r="C44">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="D44">
-        <v>0.21299999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E44">
-        <v>0.27700000000000002</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F44">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G44">
-        <v>8.0000000000000002E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0.97799999999999998</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C45">
-        <v>0.33800000000000002</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D45">
-        <v>0.57499999999999996</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E45">
-        <v>0.38700000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F45">
-        <v>0.24</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G45">
-        <v>0.36699999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.33200000000000002</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C46">
-        <v>0.108</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D46">
-        <v>0.19</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E46">
-        <v>0.187</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F46">
-        <v>8.9999999999999993E-3</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G46">
-        <v>7.0000000000000001E-3</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.71</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="C47">
-        <v>0.13500000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D47">
-        <v>0.31</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E47">
-        <v>0.221</v>
+        <v>0.123</v>
       </c>
       <c r="F47">
-        <v>7.3999999999999996E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G47">
-        <v>2.7E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.747</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C48">
-        <v>0.14299999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D48">
-        <v>0.32700000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="E48">
-        <v>0.219</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F48">
-        <v>0.112</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G48">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.746</v>
+        <v>0.875</v>
       </c>
       <c r="C49">
-        <v>9.9000000000000005E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D49">
-        <v>0.27100000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E49">
-        <v>0.158</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F49">
-        <v>6.0999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G49">
-        <v>2.1999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.318</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="C50">
-        <v>0.126</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D50">
-        <v>0.2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E50">
-        <v>0.217</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>2.4E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G50">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.98799999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C51">
-        <v>0.57599999999999996</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D51">
-        <v>0.754</v>
+        <v>0.185</v>
       </c>
       <c r="E51">
-        <v>0.45200000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="F51">
-        <v>0.60499999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="G51">
-        <v>0.65100000000000002</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="C52">
-        <v>0.379</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="D52">
-        <v>0.61499999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E52">
-        <v>0.38400000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F52">
-        <v>0.39600000000000002</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G52">
-        <v>0.35599999999999998</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.95499999999999996</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="C53">
-        <v>0.24399999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D53">
-        <v>0.48299999999999998</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="E53">
-        <v>0.32600000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="F53">
-        <v>0.155</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G53">
-        <v>0.222</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.93100000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="C54">
-        <v>0.219</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D54">
-        <v>0.45200000000000001</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="E54">
-        <v>0.308</v>
+        <v>0.317</v>
       </c>
       <c r="F54">
-        <v>0.186</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G54">
-        <v>0.122</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.98899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C55">
-        <v>0.38400000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D55">
-        <v>0.61699999999999999</v>
+        <v>0.441</v>
       </c>
       <c r="E55">
-        <v>0.378</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="F55">
-        <v>0.313</v>
+        <v>0.123</v>
       </c>
       <c r="G55">
-        <v>0.45</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.97699999999999998</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="C56">
-        <v>0.23599999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="D56">
-        <v>0.48</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E56">
-        <v>0.254</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F56">
-        <v>0.27400000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="G56">
-        <v>0.16600000000000001</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.93400000000000005</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C57">
-        <v>0.17599999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D57">
-        <v>0.40500000000000003</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="E57">
-        <v>0.24399999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F57">
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="G57">
-        <v>9.8000000000000004E-2</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.92500000000000004</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="C58">
-        <v>0.16400000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D58">
-        <v>0.38900000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E58">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="F58">
-        <v>0.10199999999999999</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G58">
         <v>0.112</v>
@@ -2422,22 +2430,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.91400000000000003</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C59">
-        <v>0.16500000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="D59">
-        <v>0.38800000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="E59">
-        <v>0.24399999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F59">
-        <v>9.4E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G59">
         <v>0.114</v>
@@ -2445,620 +2453,620 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.92400000000000004</v>
+        <v>0.873</v>
       </c>
       <c r="C60">
-        <v>0.161</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D60">
-        <v>0.38600000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E60">
-        <v>0.22500000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="F60">
-        <v>0.14099999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G60">
-        <v>8.4000000000000005E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.98699999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C61">
-        <v>0.31</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D61">
-        <v>0.55300000000000005</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E61">
-        <v>0.374</v>
+        <v>0.214</v>
       </c>
       <c r="F61">
-        <v>0.25700000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G61">
-        <v>0.28699999999999998</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.88100000000000001</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="C62">
-        <v>0.16700000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D62">
-        <v>0.38300000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E62">
-        <v>0.25700000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="F62">
-        <v>8.5000000000000006E-2</v>
+        <v>0.22</v>
       </c>
       <c r="G62">
-        <v>0.1</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.61799999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C63">
-        <v>0.127</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D63">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="E63">
-        <v>0.216</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="F63">
-        <v>2.5999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G63">
-        <v>3.2000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B64">
-        <v>0.76700000000000002</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C64">
-        <v>0.14699999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="D64">
-        <v>0.33600000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E64">
-        <v>0.24099999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F64">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G64">
-        <v>4.3999999999999997E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.81499999999999995</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="C65">
-        <v>0.17899999999999999</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D65">
-        <v>0.38200000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="E65">
-        <v>0.28999999999999998</v>
+        <v>0.129</v>
       </c>
       <c r="F65">
-        <v>8.5999999999999993E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G65">
-        <v>7.1999999999999995E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.747</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="C66">
-        <v>0.127</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D66">
-        <v>0.308</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E66">
-        <v>0.21099999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="F66">
-        <v>4.9000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G66">
-        <v>0.04</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.97599999999999998</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C67">
-        <v>0.40500000000000003</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D67">
-        <v>0.629</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E67">
-        <v>0.44500000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="F67">
-        <v>0.28100000000000003</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G67">
-        <v>0.46400000000000002</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.98099999999999998</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C68">
-        <v>0.26200000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D68">
-        <v>0.50800000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="E68">
-        <v>0.32400000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="F68">
-        <v>0.20200000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G68">
-        <v>0.247</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.94899999999999995</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C69">
-        <v>0.20799999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D69">
-        <v>0.44400000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="E69">
-        <v>0.29099999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="F69">
-        <v>0.14299999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G69">
-        <v>0.158</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.88500000000000001</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="C70">
-        <v>0.156</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D70">
-        <v>0.372</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E70">
-        <v>0.24</v>
+        <v>0.318</v>
       </c>
       <c r="F70">
-        <v>9.8000000000000004E-2</v>
+        <v>0.161</v>
       </c>
       <c r="G70">
-        <v>7.9000000000000001E-2</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.94099999999999995</v>
+        <v>0.873</v>
       </c>
       <c r="C71">
-        <v>0.19400000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="D71">
-        <v>0.42799999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="E71">
-        <v>0.27400000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F71">
-        <v>0.123</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G71">
-        <v>0.151</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.79700000000000004</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="C72">
-        <v>0.187</v>
+        <v>0.13</v>
       </c>
       <c r="D72">
-        <v>0.38600000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E72">
-        <v>0.30299999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F72">
-        <v>6.7000000000000004E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G72">
-        <v>0.09</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.66100000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C73">
-        <v>0.14000000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D73">
-        <v>0.30399999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="E73">
-        <v>0.23599999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F73">
-        <v>2.8000000000000001E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G73">
-        <v>5.0999999999999997E-2</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.84599999999999997</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C74">
-        <v>0.17699999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="D74">
-        <v>0.38700000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E74">
-        <v>0.27600000000000002</v>
+        <v>0.245</v>
       </c>
       <c r="F74">
-        <v>6.9000000000000006E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G74">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.89400000000000002</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C75">
-        <v>0.23699999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D75">
-        <v>0.46</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="E75">
-        <v>0.34799999999999998</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F75">
-        <v>0.108</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G75">
-        <v>0.189</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.94099999999999995</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C76">
-        <v>0.27200000000000002</v>
+        <v>0.153</v>
       </c>
       <c r="D76">
-        <v>0.50600000000000001</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E76">
-        <v>0.35699999999999998</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F76">
-        <v>0.151</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G76">
-        <v>0.26700000000000002</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.88</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C77">
-        <v>0.29899999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D77">
-        <v>0.51300000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="E77">
-        <v>0.46100000000000002</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="F77">
-        <v>0.153</v>
+        <v>0.123</v>
       </c>
       <c r="G77">
-        <v>0.17699999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.69499999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="C78">
-        <v>0.20200000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="D78">
-        <v>0.375</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E78">
-        <v>0.33900000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F78">
-        <v>5.0999999999999997E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G78">
-        <v>6.9000000000000006E-2</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.53200000000000003</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="C79">
-        <v>0.18099999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D79">
-        <v>0.311</v>
+        <v>0.502</v>
       </c>
       <c r="E79">
-        <v>0.31</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="F79">
-        <v>2.4E-2</v>
+        <v>0.224</v>
       </c>
       <c r="G79">
-        <v>0.04</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.879</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C80">
-        <v>0.251</v>
+        <v>0.109</v>
       </c>
       <c r="D80">
-        <v>0.46899999999999997</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="E80">
-        <v>0.38300000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F80">
-        <v>0.115</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G80">
-        <v>0.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.82499999999999996</v>
+        <v>0.748</v>
       </c>
       <c r="C81">
-        <v>0.21299999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D81">
-        <v>0.41899999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E81">
-        <v>0.34100000000000003</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F81">
-        <v>8.5999999999999993E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G81">
-        <v>0.109</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.68400000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="C82">
-        <v>0.14299999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="D82">
-        <v>0.312</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E82">
-        <v>0.24</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F82">
-        <v>3.5999999999999997E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="G82">
-        <v>4.5999999999999999E-2</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.56200000000000006</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="C83">
-        <v>0.21</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D83">
-        <v>0.34300000000000003</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E83">
-        <v>0.35799999999999998</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="F83">
-        <v>3.2000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G83">
-        <v>4.8000000000000001E-2</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.59499999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="C84">
-        <v>0.161</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>0.31</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E84">
-        <v>0.27400000000000002</v>
+        <v>0.126</v>
       </c>
       <c r="F84">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G84">
-        <v>4.7E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.89</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="C85">
-        <v>0.157</v>
+        <v>0.1</v>
       </c>
       <c r="D85">
-        <v>0.374</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="E85">
-        <v>0.23799999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F85">
-        <v>0.104</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G85">
-        <v>7.9000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.59</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C86">
-        <v>0.20699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D86">
-        <v>0.35</v>
+        <v>0.253</v>
       </c>
       <c r="E86">
-        <v>0.35399999999999998</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F86">
-        <v>0.04</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G86">
         <v>4.4999999999999998E-2</v>
@@ -3066,1819 +3074,1865 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.51600000000000001</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="C87">
-        <v>0.13</v>
+        <v>0.122</v>
       </c>
       <c r="D87">
-        <v>0.25900000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E87">
-        <v>0.224</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F87">
-        <v>2.3E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="G87">
-        <v>1.7999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.56299999999999994</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C88">
-        <v>0.16400000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D88">
-        <v>0.30399999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="E88">
-        <v>0.27800000000000002</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F88">
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G88">
-        <v>0.02</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.84099999999999997</v>
+        <v>0.748</v>
       </c>
       <c r="C89">
-        <v>0.19900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D89">
-        <v>0.40899999999999997</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E89">
-        <v>0.315</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F89">
-        <v>0.115</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G89">
-        <v>8.1000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.40300000000000002</v>
+        <v>0.748</v>
       </c>
       <c r="C90">
-        <v>0.14199999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D90">
-        <v>0.23899999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E90">
-        <v>0.24399999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F90">
-        <v>1.2999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G90">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.61399999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C91">
-        <v>0.221</v>
+        <v>0.126</v>
       </c>
       <c r="D91">
-        <v>0.36799999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="E91">
-        <v>0.375</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F91">
-        <v>6.9000000000000006E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G91">
-        <v>3.6999999999999998E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.67900000000000005</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C92">
-        <v>0.19</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D92">
-        <v>0.35899999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E92">
-        <v>0.317</v>
+        <v>0.128</v>
       </c>
       <c r="F92">
-        <v>7.6999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G92">
-        <v>3.7999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.91700000000000004</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="C93">
-        <v>0.247</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D93">
-        <v>0.47599999999999998</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E93">
-        <v>0.36599999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F93">
-        <v>0.155</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G93">
-        <v>0.158</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.51400000000000001</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="C94">
-        <v>0.124</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D94">
-        <v>0.253</v>
+        <v>0.312</v>
       </c>
       <c r="E94">
-        <v>0.21299999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="F94">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G94">
-        <v>1.2999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.51</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C95">
-        <v>0.14499999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D95">
-        <v>0.27200000000000002</v>
+        <v>0.438</v>
       </c>
       <c r="E95">
-        <v>0.249</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F95">
-        <v>3.1E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G95">
-        <v>1.7000000000000001E-2</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.755</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="C96">
-        <v>0.188</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D96">
-        <v>0.376</v>
+        <v>0.219</v>
       </c>
       <c r="E96">
-        <v>0.30199999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F96">
-        <v>0.11</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G96">
-        <v>4.5999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.73099999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="C97">
-        <v>0.13200000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D97">
-        <v>0.311</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E97">
-        <v>0.217</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F97">
-        <v>6.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G97">
-        <v>3.3000000000000002E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.77200000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="C98">
-        <v>0.17100000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="D98">
-        <v>0.36299999999999999</v>
+        <v>0.313</v>
       </c>
       <c r="E98">
-        <v>0.27600000000000002</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="F98">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G98">
-        <v>4.8000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.99299999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C99">
-        <v>0.38100000000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D99">
-        <v>0.61499999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E99">
-        <v>0.377</v>
+        <v>0.121</v>
       </c>
       <c r="F99">
-        <v>0.32300000000000001</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G99">
-        <v>0.433</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.64600000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="C100">
-        <v>0.13600000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="D100">
-        <v>0.29599999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="E100">
-        <v>0.23</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F100">
-        <v>3.9E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="G100">
-        <v>0.03</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.92</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="C101">
-        <v>0.13100000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D101">
-        <v>0.34699999999999998</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="E101">
-        <v>0.17899999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F101">
-        <v>0.122</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G101">
-        <v>6.4000000000000001E-2</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.44</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="C102">
-        <v>0.124</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D102">
-        <v>0.23400000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E102">
-        <v>0.214</v>
+        <v>0.13</v>
       </c>
       <c r="F102">
-        <v>2.3E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G102">
-        <v>0.01</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103">
-        <v>0.80700000000000005</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="C103">
-        <v>0.122</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D103">
-        <v>0.313</v>
+        <v>0.33</v>
       </c>
       <c r="E103">
-        <v>0.182</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F103">
-        <v>0.10100000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G103">
-        <v>3.4000000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104">
-        <v>0.73599999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="C104">
-        <v>0.13700000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D104">
-        <v>0.318</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E104">
-        <v>0.22600000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="F104">
-        <v>6.5000000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G104">
-        <v>3.5000000000000003E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105">
-        <v>0.73299999999999998</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="C105">
-        <v>0.158</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D105">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="E105">
-        <v>0.253</v>
+        <v>0.112</v>
       </c>
       <c r="F105">
-        <v>9.7000000000000003E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G105">
-        <v>3.4000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="C106">
-        <v>0.153</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D106">
-        <v>0.35199999999999998</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E106">
-        <v>0.247</v>
+        <v>0.15</v>
       </c>
       <c r="F106">
-        <v>7.1999999999999995E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G106">
-        <v>0.06</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107">
-        <v>0.63</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C107">
-        <v>0.14699999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="D107">
-        <v>0.30499999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="E107">
-        <v>0.249</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F107">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G107">
-        <v>2.5000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108">
-        <v>0.95099999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="C108">
-        <v>0.32800000000000001</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D108">
-        <v>0.55800000000000005</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E108">
-        <v>0.438</v>
+        <v>0.156</v>
       </c>
       <c r="F108">
-        <v>0.2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G108">
-        <v>0.30199999999999999</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109">
-        <v>0.85099999999999998</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="C109">
-        <v>0.16700000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D109">
-        <v>0.377</v>
+        <v>0.224</v>
       </c>
       <c r="E109">
-        <v>0.26500000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F109">
-        <v>8.5999999999999993E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G109">
-        <v>0.08</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110">
-        <v>0.66300000000000003</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="C110">
-        <v>0.13900000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D110">
-        <v>0.30399999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E110">
-        <v>0.23400000000000001</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="F110">
-        <v>4.7E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="G110">
-        <v>2.9000000000000001E-2</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111">
-        <v>0.82</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C111">
-        <v>0.17399999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="D111">
-        <v>0.377</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E111">
-        <v>0.26500000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F111">
-        <v>0.13100000000000001</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G111">
-        <v>5.2999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112">
-        <v>0.73799999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="C112">
-        <v>0.16800000000000001</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D112">
-        <v>0.35299999999999998</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E112">
-        <v>0.27900000000000003</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F112">
-        <v>7.0000000000000007E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G112">
-        <v>4.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113">
-        <v>0.79600000000000004</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="C113">
-        <v>0.13100000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="D113">
-        <v>0.32300000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="E113">
-        <v>0.21</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F113">
-        <v>7.6999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G113">
-        <v>4.1000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114">
-        <v>0.54</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C114">
-        <v>0.14099999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="D114">
-        <v>0.27600000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E114">
-        <v>0.24199999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F114">
-        <v>2.1999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G114">
-        <v>2.7E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115">
-        <v>0.96699999999999997</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C115">
-        <v>0.45400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D115">
-        <v>0.66300000000000003</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E115">
-        <v>0.59099999999999997</v>
+        <v>0.157</v>
       </c>
       <c r="F115">
-        <v>0.315</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G115">
-        <v>0.41299999999999998</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116">
-        <v>0.94499999999999995</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="C116">
-        <v>0.49399999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D116">
-        <v>0.68300000000000005</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E116">
-        <v>0.69499999999999995</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F116">
-        <v>0.32900000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G116">
-        <v>0.375</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117">
-        <v>0.875</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C117">
-        <v>0.24</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D117">
-        <v>0.45900000000000002</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="E117">
-        <v>0.36799999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="F117">
-        <v>0.108</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G117">
-        <v>0.16200000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118">
-        <v>0.90900000000000003</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C118">
-        <v>0.26700000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="D118">
-        <v>0.49299999999999999</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E118">
-        <v>0.35899999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="F118">
-        <v>0.121</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="G118">
-        <v>0.26700000000000002</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119">
-        <v>0.76</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="C119">
-        <v>0.152</v>
+        <v>0.19</v>
       </c>
       <c r="D119">
-        <v>0.34</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E119">
-        <v>0.246</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F119">
-        <v>3.9E-2</v>
+        <v>0.113</v>
       </c>
       <c r="G119">
-        <v>8.5999999999999993E-2</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120">
-        <v>0.72799999999999998</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C120">
-        <v>0.19</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="D120">
-        <v>0.372</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="E120">
-        <v>0.317</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F120">
-        <v>6.8000000000000005E-2</v>
+        <v>0.121</v>
       </c>
       <c r="G120">
-        <v>5.7000000000000002E-2</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121">
-        <v>0.88800000000000001</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C121">
-        <v>0.23799999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D121">
-        <v>0.46</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E121">
-        <v>0.34499999999999997</v>
+        <v>0.152</v>
       </c>
       <c r="F121">
-        <v>0.10199999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="G121">
-        <v>0.20300000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122">
-        <v>0.96099999999999997</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C122">
-        <v>0.26600000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D122">
-        <v>0.50600000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E122">
-        <v>0.29599999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="F122">
-        <v>0.314</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G122">
-        <v>0.16400000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B123">
-        <v>0.72199999999999998</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="C123">
-        <v>0.19700000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="D123">
-        <v>0.377</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E123">
-        <v>0.308</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F123">
-        <v>3.6999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="G123">
-        <v>0.14199999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124">
-        <v>0.98399999999999999</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C124">
-        <v>0.29299999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D124">
-        <v>0.53700000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E124">
-        <v>0.36199999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F124">
-        <v>0.26200000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G124">
-        <v>0.24099999999999999</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125">
-        <v>0.995</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="C125">
-        <v>0.31900000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D125">
-        <v>0.56299999999999994</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E125">
-        <v>0.36399999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F125">
-        <v>0.28699999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G125">
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126">
-        <v>0.96499999999999997</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C126">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="D126">
-        <v>0.439</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E126">
-        <v>0.26500000000000001</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F126">
-        <v>0.17199999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G126">
-        <v>0.14099999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127">
-        <v>0.83199999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C127">
-        <v>0.183</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D127">
-        <v>0.39</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="E127">
-        <v>0.28799999999999998</v>
+        <v>0.314</v>
       </c>
       <c r="F127">
-        <v>0.113</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G127">
-        <v>6.8000000000000005E-2</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128">
-        <v>0.94599999999999995</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C128">
-        <v>0.23</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="D128">
-        <v>0.46700000000000003</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E128">
-        <v>0.309</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F128">
-        <v>0.214</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G128">
-        <v>0.13500000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B129">
-        <v>0.68</v>
+        <v>0.873</v>
       </c>
       <c r="C129">
-        <v>0.218</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D129">
-        <v>0.38500000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E129">
-        <v>0.36499999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="F129">
-        <v>8.3000000000000004E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G129">
-        <v>4.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130">
-        <v>0.93899999999999995</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C130">
-        <v>0.157</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D130">
-        <v>0.38400000000000001</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E130">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F130">
-        <v>0.13</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="G130">
-        <v>9.2999999999999999E-2</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B131">
-        <v>0.65100000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C131">
-        <v>0.16900000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="D131">
-        <v>0.33200000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="E131">
-        <v>0.28599999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F131">
-        <v>5.3999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G131">
-        <v>3.5000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132">
-        <v>0.995</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C132">
-        <v>0.21199999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D132">
-        <v>0.45900000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="E132">
-        <v>0.22700000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="F132">
-        <v>0.224</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="G132">
-        <v>0.18099999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133">
-        <v>0.94499999999999995</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="C133">
-        <v>0.189</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D133">
-        <v>0.42299999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E133">
-        <v>0.26500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F133">
-        <v>0.14899999999999999</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G133">
-        <v>0.122</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134">
-        <v>0.90900000000000003</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="C134">
-        <v>9.4E-2</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D134">
-        <v>0.29199999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="E134">
-        <v>0.13400000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F134">
-        <v>7.9000000000000001E-2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G134">
-        <v>4.4999999999999998E-2</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135">
-        <v>0.85299999999999998</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C135">
-        <v>7.8E-2</v>
+        <v>0.188</v>
       </c>
       <c r="D135">
-        <v>0.25800000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E135">
-        <v>0.123</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F135">
-        <v>4.2999999999999997E-2</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G135">
-        <v>3.5999999999999997E-2</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B136">
-        <v>0.81499999999999995</v>
+        <v>0.92</v>
       </c>
       <c r="C136">
-        <v>0.04</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D136">
-        <v>0.18</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E136">
-        <v>5.8999999999999997E-2</v>
+        <v>0.114</v>
       </c>
       <c r="F136">
-        <v>3.3000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G136">
-        <v>1.0999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B137">
-        <v>0.81699999999999995</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="C137">
-        <v>6.0999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D137">
-        <v>0.223</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E137">
-        <v>9.8000000000000004E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F137">
-        <v>2.5999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G137">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B138">
-        <v>0.83399999999999996</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="C138">
-        <v>9.0999999999999998E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D138">
-        <v>0.27500000000000002</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E138">
-        <v>0.13800000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F138">
-        <v>6.8000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G138">
-        <v>0.03</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B139">
-        <v>0.64100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="C139">
-        <v>7.0000000000000007E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D139">
-        <v>0.21199999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E139">
-        <v>0.11600000000000001</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F139">
-        <v>3.3000000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G139">
-        <v>0.01</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B140">
-        <v>0.79100000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="C140">
-        <v>0.11</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D140">
-        <v>0.29399999999999998</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="E140">
-        <v>0.17199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="F140">
-        <v>7.4999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G140">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141">
-        <v>0.97799999999999998</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="C141">
-        <v>0.66900000000000004</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D141">
-        <v>0.80900000000000005</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E141">
-        <v>0.47799999999999998</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F141">
-        <v>0.69299999999999995</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G141">
-        <v>0.79700000000000004</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B142">
-        <v>0.98899999999999999</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="C142">
-        <v>0.45100000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D142">
-        <v>0.66800000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="E142">
-        <v>0.40300000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="F142">
-        <v>0.39100000000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="G142">
-        <v>0.54300000000000004</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B143">
-        <v>0.86099999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="C143">
-        <v>0.13400000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="D143">
-        <v>0.34</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="E143">
-        <v>0.21099999999999999</v>
+        <v>0.498</v>
       </c>
       <c r="F143">
-        <v>6.9000000000000006E-2</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="G143">
-        <v>6.9000000000000006E-2</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B144">
-        <v>0.68</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="C144">
-        <v>0.14399999999999999</v>
+        <v>0.442</v>
       </c>
       <c r="D144">
-        <v>0.313</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E144">
-        <v>0.24199999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="F144">
-        <v>4.7E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G144">
-        <v>3.5000000000000003E-2</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B145">
-        <v>0.88500000000000001</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C145">
-        <v>0.13200000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D145">
-        <v>0.34100000000000003</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E145">
-        <v>0.19</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F145">
-        <v>0.113</v>
+        <v>0.06</v>
       </c>
       <c r="G145">
-        <v>5.5E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B146">
-        <v>0.80800000000000005</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="C146">
-        <v>0.10299999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="D146">
-        <v>0.28799999999999998</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E146">
-        <v>0.16600000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F146">
-        <v>4.8000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G146">
-        <v>4.1000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B147">
-        <v>0.73799999999999999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C147">
-        <v>9.2999999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D147">
-        <v>0.26100000000000001</v>
+        <v>0.308</v>
       </c>
       <c r="E147">
-        <v>0.154</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F147">
-        <v>2.8000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G147">
-        <v>3.5000000000000003E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B148">
-        <v>0.78400000000000003</v>
+        <v>0.879</v>
       </c>
       <c r="C148">
-        <v>0.108</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D148">
-        <v>0.29099999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="E148">
-        <v>0.17699999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F148">
-        <v>4.9000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G148">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149">
-        <v>0.93899999999999995</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="C149">
-        <v>8.7999999999999995E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D149">
-        <v>0.28699999999999998</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E149">
-        <v>0.124</v>
+        <v>0.1</v>
       </c>
       <c r="F149">
-        <v>6.8000000000000005E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G149">
-        <v>5.5E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B150">
-        <v>0.88200000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="C150">
-        <v>0.10299999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D150">
-        <v>0.30199999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="E150">
-        <v>0.159</v>
+        <v>0.111</v>
       </c>
       <c r="F150">
-        <v>6.4000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G150">
-        <v>5.1999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B151">
-        <v>0.747</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="C151">
-        <v>0.14099999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D151">
-        <v>0.32500000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E151">
-        <v>0.23400000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="F151">
-        <v>4.2999999999999997E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G151">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B152">
-        <v>0.80100000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C152">
-        <v>0.129</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D152">
-        <v>0.32200000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="E152">
-        <v>0.21</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F152">
-        <v>5.5E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G152">
-        <v>5.2999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B153">
-        <v>0.72499999999999998</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="C153">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="D153">
-        <v>0.29499999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="E153">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F153">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G153">
-        <v>3.5000000000000003E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B154">
-        <v>0.63</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C154">
-        <v>7.6999999999999999E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D154">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="E154">
-        <v>0.13100000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="F154">
-        <v>1.6E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G154">
-        <v>2.1000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B155">
-        <v>0.747</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="C155">
-        <v>9.7000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D155">
-        <v>0.26900000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="E155">
-        <v>0.16</v>
+        <v>0.129</v>
       </c>
       <c r="F155">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G155">
         <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G155">
-        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B156">
-        <v>0.96199999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="C156">
-        <v>0.21299999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D156">
-        <v>0.45200000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E156">
-        <v>0.28599999999999998</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F156">
-        <v>0.152</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G156">
-        <v>0.17499999999999999</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B157">
-        <v>0.56100000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="C157">
-        <v>0.16200000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D157">
-        <v>0.30199999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E157">
-        <v>0.27700000000000002</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F157">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G157">
-        <v>4.2000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B158">
-        <v>0.56999999999999995</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C158">
-        <v>0.17699999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="D158">
-        <v>0.317</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E158">
-        <v>0.30099999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="F158">
-        <v>5.0999999999999997E-2</v>
+        <v>0.158</v>
       </c>
       <c r="G158">
-        <v>2.4E-2</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B159">
-        <v>0.59399999999999997</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="C159">
-        <v>0.16900000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D159">
-        <v>0.316</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E159">
-        <v>0.28499999999999998</v>
+        <v>0.115</v>
       </c>
       <c r="F159">
-        <v>5.7000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G159">
-        <v>2.3E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B160">
-        <v>0.67400000000000004</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C160">
-        <v>0.17299999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D160">
-        <v>0.34100000000000003</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E160">
-        <v>0.28999999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="F160">
-        <v>6.2E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G160">
-        <v>3.6999999999999998E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B161">
-        <v>0.499</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="C161">
-        <v>0.13900000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D161">
-        <v>0.26300000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E161">
-        <v>0.23699999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="F161">
-        <v>3.5999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G161">
-        <v>1.2999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B162">
-        <v>0.69099999999999995</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="C162">
-        <v>0.17100000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D162">
-        <v>0.34399999999999997</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E162">
-        <v>0.28699999999999998</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F162">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G162">
-        <v>5.6000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B163">
-        <v>0.60699999999999998</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="C163">
-        <v>0.22500000000000001</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D163">
-        <v>0.36899999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="E163">
-        <v>0.38200000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F163">
-        <v>6.4000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G163">
-        <v>3.7999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B164">
-        <v>0.63200000000000001</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="C164">
-        <v>0.17399999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="D164">
-        <v>0.33200000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="E164">
-        <v>0.29599999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="F164">
-        <v>0.05</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G164">
-        <v>3.5000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C165">
+        <v>0.11</v>
+      </c>
+      <c r="D165">
+        <v>0.3</v>
+      </c>
+      <c r="E165">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F165">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G165">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C166">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D166">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E166">
+        <v>0.111</v>
+      </c>
+      <c r="F166">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G166">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>170</v>
       </c>
-      <c r="B165">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="C165">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="D165">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="E165">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F165">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G165">
-        <v>0.10100000000000001</v>
+      <c r="B167">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C167">
+        <v>0.112</v>
+      </c>
+      <c r="D167">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E167">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F167">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G167">
+        <v>0.10199999999999999</v>
       </c>
     </row>
   </sheetData>
